--- a/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>2.098374576409995e-06</v>
+        <v>1.532016541630295e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>2.73580614133955e-06</v>
+        <v>4.248180285844251e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>4.040416302275012e-06</v>
+        <v>6.390933029204435e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>5.796710003889307e-06</v>
+        <v>6.692320264573379e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>7.891804430487909e-06</v>
+        <v>6.959898209292752e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>1.648220744464378e-05</v>
+        <v>7.362686123619763e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.767064728010032e-05</v>
+        <v>6.694320939010032e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>7.559681130481612e-05</v>
+        <v>7.374428485933745e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000121774231775957</v>
+        <v>5.481710965249388e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001328990219945126</v>
+        <v>6.925762471110491e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001063395183813396</v>
+        <v>5.403866092364174e-07</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>5.473408002963301e-05</v>
+        <v>4.839798129543903e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>4.183696653285826e-05</v>
+        <v>7.286422266826993e-07</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>5.293786080845318e-05</v>
+        <v>5.670520224400857e-07</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.333494321821377e-05</v>
+        <v>5.799802670246405e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.683736961043326e-05</v>
+        <v>5.03167542583191e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>9.69234816986116e-06</v>
+        <v>5.156173514652679e-07</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>5.039403092598048e-06</v>
+        <v>6.634194551941298e-07</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>3.859777651867989e-06</v>
+        <v>5.452409292037754e-07</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.886410892051245e-06</v>
+        <v>6.34504093290155e-07</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>4.628702780601951e-06</v>
+        <v>1.206803360716624e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>5.876783568203599e-06</v>
+        <v>1.351722244399002e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>5.659569460671536e-06</v>
+        <v>1.79437963108747e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>1.20240932629742e-05</v>
+        <v>1.96458995309679e-06</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>1.822581985643999e-05</v>
+        <v>1.724033528398319e-06</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>4.386212868972289e-05</v>
+        <v>2.0979826061953e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001097234886808229</v>
+        <v>1.915161156292145e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001072180910511472</v>
+        <v>1.994428810423946e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>5.787696713979606e-05</v>
+        <v>1.956646342101329e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>2.996094182366013e-05</v>
+        <v>1.952269218330256e-06</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.491069758084297e-05</v>
+        <v>1.846405227334268e-06</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>1.528823657992033e-05</v>
+        <v>1.70957669380472e-06</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.065710189640546e-05</v>
+        <v>2.039163605917001e-06</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>9.382583906040345e-06</v>
+        <v>1.78441341278189e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>6.002028210057198e-06</v>
+        <v>1.72938346955535e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>6.79316701128352e-06</v>
+        <v>1.125665666117461e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>1.443372542442751e-05</v>
+        <v>1.148646486565143e-06</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>9.551134905001174e-06</v>
+        <v>9.455576405429738e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>4.230677614338141e-06</v>
+        <v>1.155601613147329e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.617121075522552e-06</v>
+        <v>1.739691704295422e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>3.245540709110218e-06</v>
+        <v>1.776266397578688e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>4.079165731011509e-06</v>
+        <v>1.656343393453385e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>7.224836436000992e-06</v>
+        <v>1.488193234434228e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>1.666092969646723e-05</v>
+        <v>1.5623011715922e-06</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.866079358145069e-05</v>
+        <v>1.507308137106246e-06</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>2.154269123581542e-05</v>
+        <v>9.890303553290465e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>2.223126257156493e-05</v>
+        <v>1.284106693576504e-06</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.972266473744983e-05</v>
+        <v>1.888647501916811e-06</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>1.712119869531401e-05</v>
+        <v>2.703874597427277e-06</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.274698289427775e-05</v>
+        <v>3.673548583757531e-06</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.152642996687304e-05</v>
+        <v>7.65661057238314e-06</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.081904662005639e-05</v>
+        <v>1.282769445864073e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>1.088420156120307e-05</v>
+        <v>3.50088471515071e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>1.053059137357131e-05</v>
+        <v>5.633360800328125e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.051430283516099e-05</v>
+        <v>6.135464746226059e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>1.204057666228382e-05</v>
+        <v>4.901148310432153e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>1.587055229837281e-05</v>
+        <v>2.518411780529776e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>2.539504496315549e-05</v>
+        <v>1.924170362025901e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>3.846436027077511e-05</v>
+        <v>2.433774582304272e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>5.02716466891912e-05</v>
+        <v>1.072326448078239e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>6.628230739944265e-05</v>
+        <v>7.732945769644246e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>8.203016295466852e-05</v>
+        <v>4.446835618607697e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>8.833431868892636e-05</v>
+        <v>2.307164933424632e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0001091030087452744</v>
+        <v>1.766380872895158e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0001327155195338573</v>
+        <v>1.7774996290787e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0001336716017966888</v>
+        <v>2.114806068923802e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001490245164104183</v>
+        <v>2.682163097921265e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001515159836454295</v>
+        <v>2.580793190262382e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001500108353941003</v>
+        <v>5.476626649740025e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001470335787490424</v>
+        <v>8.29241836412902e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0001470625470227306</v>
+        <v>1.991693804863741e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001392577487455907</v>
+        <v>4.97161326027827e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001353966225575506</v>
+        <v>4.848075804712692e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0001102594670173099</v>
+        <v>2.611651368405161e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0001017218481658819</v>
+        <v>1.349147678378273e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>8.513243368589241e-05</v>
+        <v>6.700141435588203e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>6.555030130756358e-05</v>
+        <v>6.855951318064849e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>5.957077977913659e-05</v>
+        <v>4.768995621565473e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>5.096422345818395e-05</v>
+        <v>4.190207069121112e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>4.839049696661093e-05</v>
+        <v>2.677564172026749e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>4.850681413198268e-05</v>
+        <v>3.027489287401527e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>4.791237687147393e-05</v>
+        <v>6.419302759264413e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>4.62879994766279e-05</v>
+        <v>4.230076075307543e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>4.648545589796079e-05</v>
+        <v>1.869818813240431e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>4.690069286070828e-05</v>
+        <v>1.595407227774903e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.227766533026801e-05</v>
+        <v>1.425560506398031e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>5.682154129357849e-05</v>
+        <v>1.784308481660756e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>5.958539602774142e-05</v>
+        <v>3.147203330881347e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>5.990134479791488e-05</v>
+        <v>7.249855434164249e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>5.858150355858101e-05</v>
+        <v>8.113848407748562e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>5.537900265616714e-05</v>
+        <v>9.345258723209016e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>4.728695305478079e-05</v>
+        <v>9.634004629416009e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.931063946524184e-05</v>
+        <v>8.537750293624503e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>2.459967553638148e-05</v>
+        <v>7.396334192306982e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.956673110218177e-05</v>
+        <v>5.495495748604946e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.496953612155391e-05</v>
+        <v>4.958878594549515e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.400085456247482e-05</v>
+        <v>4.652493335795195e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.372308651576457e-05</v>
+        <v>4.677493173271013e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.396568414342006e-05</v>
+        <v>4.521034433040459e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>1.326582662488487e-05</v>
+        <v>4.504845982911972e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.317840558122749e-05</v>
+        <v>5.137269315722216e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>1.323714236699497e-05</v>
+        <v>6.74857716756685e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>1.318576784607017e-05</v>
+        <v>1.074590586772371e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>1.296153458802319e-05</v>
+        <v>1.62423870146557e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.270159966822774e-05</v>
+        <v>2.118330545222892e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.269325898247275e-05</v>
+        <v>2.787293153137593e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13711210349397e-05</v>
+        <v>3.445092955613744e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.155274331011396e-05</v>
+        <v>3.706746353896404e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.161463817827448e-05</v>
+        <v>4.571869493167579e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.154360458770849e-05</v>
+        <v>5.550003038406123e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.013886043461289e-05</v>
+        <v>5.585904978309732e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>8.766623192339217e-06</v>
+        <v>6.219098370584218e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>8.295413523376273e-06</v>
+        <v>6.316373359193857e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>8.079090228693805e-06</v>
+        <v>6.249892003938452e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>9.973828459868252e-06</v>
+        <v>6.121887288594007e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.721368179559399e-05</v>
+        <v>6.120337743907675e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.110014819131417e-05</v>
+        <v>5.792206360574949e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>2.237106404902639e-05</v>
+        <v>5.629471462816139e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>2.27960682003873e-05</v>
+        <v>4.574752141097193e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.317488903825467e-05</v>
+        <v>4.215829497971152e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.33157722622998e-05</v>
+        <v>3.524921334441061e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>2.241363502305918e-05</v>
+        <v>2.708512674383109e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.051970294067663e-05</v>
+        <v>2.458710985376615e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.275183830869601e-05</v>
+        <v>2.101370686721797e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>8.14602367149834e-06</v>
+        <v>1.994050160407149e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>7.272224207627396e-06</v>
+        <v>1.998793540664691e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>8.241752763920726e-06</v>
+        <v>1.973496337696794e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.146562599582025e-05</v>
+        <v>1.904620130188139e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>1.276115791146253e-05</v>
+        <v>1.911543034013862e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>1.9255388277328e-05</v>
+        <v>1.927710169812474e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>2.540297994921924e-05</v>
+        <v>2.147520024263867e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>2.632937729343332e-05</v>
+        <v>2.332668183778326e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>2.522798902063479e-05</v>
+        <v>2.444705966002097e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>2.26783521611968e-05</v>
+        <v>2.456002357206134e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>2.24568810593537e-05</v>
+        <v>2.400488153684448e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>2.003247316565161e-05</v>
+        <v>2.266822502080313e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.698131665622145e-05</v>
+        <v>1.933637126766896e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>1.547671252087426e-05</v>
+        <v>1.19606403505325e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>1.518482478204916e-05</v>
+        <v>1.002779305190631e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>1.498080964497881e-05</v>
+        <v>7.968609551130063e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>1.479831501189369e-05</v>
+        <v>6.084120911479905e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.385444120648773e-05</v>
+        <v>5.68357393758915e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>1.54898890010933e-05</v>
+        <v>5.56650667503726e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.780234205119685e-05</v>
+        <v>5.661340468552992e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>2.012992000575323e-05</v>
+        <v>5.375260087909582e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>2.271971468741868e-05</v>
+        <v>5.338619099023668e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>2.62431051770492e-05</v>
+        <v>5.361924154393389e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>2.952477629466911e-05</v>
+        <v>5.340803831279823e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>2.815248646274424e-05</v>
+        <v>5.247616978243231e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>2.831389445900326e-05</v>
+        <v>5.140267815620671e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>2.534566975380223e-05</v>
+        <v>5.134719020947313e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.489544833436739e-05</v>
+        <v>4.598089862734832e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>2.202477442367299e-05</v>
+        <v>4.670310794821384e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.109677724009936e-05</v>
+        <v>4.694640916602322e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>2.05542377867753e-05</v>
+        <v>4.662939250586929e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>2.611755287554632e-05</v>
+        <v>4.091293276123127e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>2.280844531650102e-05</v>
+        <v>3.533914666587115e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>2.40693620023755e-05</v>
+        <v>3.340671942429998e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>2.179649518236566e-05</v>
+        <v>3.25259746648941e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>2.042058458406064e-05</v>
+        <v>4.012186440542774e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>1.936429419975838e-05</v>
+        <v>6.917293830510065e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.818686989954622e-05</v>
+        <v>8.474194126709572e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.679144604974794e-05</v>
+        <v>8.978859280323578e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>1.699242401028201e-05</v>
+        <v>9.14327280805286e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>8.705698979788231e-06</v>
+        <v>9.291319862718453e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>3.588008268242772e-06</v>
+        <v>9.345922276643495e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.219432977734176e-06</v>
+        <v>8.973021505342061e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>3.131289136794045e-06</v>
+        <v>8.210839666013364e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>1.946633738368127e-06</v>
+        <v>5.091281790984537e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>1.580019128580313e-06</v>
+        <v>3.239046014066168e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.348084240192333e-06</v>
+        <v>2.879517922999283e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.3880819686345e-06</v>
+        <v>3.249902274130906e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>1.928130927114724e-06</v>
+        <v>4.512272664670951e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.57615314693207e-06</v>
+        <v>5.018419073023165e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>3.960902949154109e-06</v>
+        <v>7.561225390882903e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>3.441025533293018e-06</v>
+        <v>9.954988962809835e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.060136424642447e-06</v>
+        <v>1.030711791841724e-05</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.865843993817134e-06</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.859606958389313e-06</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.772977064888568e-06</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.818088677242936e-06</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.620248912692459e-06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.027154206896267e-06</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.910074035743454e-06</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.824951246316088e-06</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.751545924133459e-06</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.381727423665648e-06</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.009716162128429e-06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.900234915496653e-06</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.794903894295845e-06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.788100428990276e-06</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.014071597876148e-05</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.139650129335526e-05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.086673269023411e-05</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.091870224004748e-05</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9.763384873315319e-06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9.589577477344952e-06</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.476756879464961e-06</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8.117372133883572e-06</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7.908095159739525e-06</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.004131009928068e-05</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8.76625178457814e-06</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9.242627429926716e-06</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>8.366497001377405e-06</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7.835010419739104e-06</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>7.426695229376765e-06</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.971955269077829e-06</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.434361404785756e-06</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.509200411998827e-06</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.331286523493473e-06</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.371466484422004e-06</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8.478496453438149e-07</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.196085268496686e-06</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>7.434921188764989e-07</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>6.032054798458695e-07</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.142432653044634e-07</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.291473225697952e-07</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>7.334447054425204e-07</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.357330794256505e-06</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.500160292340548e-06</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.300276943198661e-06</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.155425390405855e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>1.532016541630295e-07</v>
+        <v>2.098374576409995e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>4.248180285844251e-07</v>
+        <v>2.73580614133955e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>6.390933029204435e-07</v>
+        <v>4.040416302275012e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>6.692320264573379e-07</v>
+        <v>5.796710003889307e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>6.959898209292752e-07</v>
+        <v>7.891804430487909e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>7.362686123619763e-07</v>
+        <v>1.648220744464378e-05</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>6.694320939010032e-07</v>
+        <v>2.767064728010032e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.374428485933745e-07</v>
+        <v>7.559681130481612e-05</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>5.481710965249388e-07</v>
+        <v>0.000121774231775957</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>6.925762471110491e-07</v>
+        <v>0.0001328990219945126</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>5.403866092364174e-07</v>
+        <v>0.0001063395183813396</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>4.839798129543903e-07</v>
+        <v>5.473408002963301e-05</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>7.286422266826993e-07</v>
+        <v>4.183696653285826e-05</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>5.670520224400857e-07</v>
+        <v>5.293786080845318e-05</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>5.799802670246405e-07</v>
+        <v>2.333494321821377e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>5.03167542583191e-07</v>
+        <v>1.683736961043326e-05</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>5.156173514652679e-07</v>
+        <v>9.69234816986116e-06</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>6.634194551941298e-07</v>
+        <v>5.039403092598048e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>5.452409292037754e-07</v>
+        <v>3.859777651867989e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>6.34504093290155e-07</v>
+        <v>3.886410892051245e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>1.206803360716624e-06</v>
+        <v>4.628702780601951e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.351722244399002e-06</v>
+        <v>5.876783568203599e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>1.79437963108747e-06</v>
+        <v>5.659569460671536e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>1.96458995309679e-06</v>
+        <v>1.20240932629742e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>1.724033528398319e-06</v>
+        <v>1.822581985643999e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0979826061953e-06</v>
+        <v>4.386212868972289e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>1.915161156292145e-06</v>
+        <v>0.0001097234886808229</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>1.994428810423946e-06</v>
+        <v>0.0001072180910511472</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>1.956646342101329e-06</v>
+        <v>5.787696713979606e-05</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>1.952269218330256e-06</v>
+        <v>2.996094182366013e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.846405227334268e-06</v>
+        <v>1.491069758084297e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>1.70957669380472e-06</v>
+        <v>1.528823657992033e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>2.039163605917001e-06</v>
+        <v>1.065710189640546e-05</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.78441341278189e-06</v>
+        <v>9.382583906040345e-06</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.72938346955535e-06</v>
+        <v>6.002028210057198e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.125665666117461e-06</v>
+        <v>6.79316701128352e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.148646486565143e-06</v>
+        <v>1.443372542442751e-05</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>9.455576405429738e-07</v>
+        <v>9.551134905001174e-06</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.155601613147329e-06</v>
+        <v>4.230677614338141e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>1.739691704295422e-06</v>
+        <v>3.617121075522552e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.776266397578688e-06</v>
+        <v>3.245540709110218e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.656343393453385e-06</v>
+        <v>4.079165731011509e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.488193234434228e-06</v>
+        <v>7.224836436000992e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.5623011715922e-06</v>
+        <v>1.666092969646723e-05</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>1.507308137106246e-06</v>
+        <v>1.866079358145069e-05</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>9.890303553290465e-07</v>
+        <v>2.154269123581542e-05</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.284106693576504e-06</v>
+        <v>2.223126257156493e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>1.888647501916811e-06</v>
+        <v>1.972266473744983e-05</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.703874597427277e-06</v>
+        <v>1.712119869531401e-05</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>3.673548583757531e-06</v>
+        <v>1.274698289427775e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>7.65661057238314e-06</v>
+        <v>1.152642996687304e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>1.282769445864073e-05</v>
+        <v>1.081904662005639e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>3.50088471515071e-05</v>
+        <v>1.088420156120307e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>5.633360800328125e-05</v>
+        <v>1.053059137357131e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>6.135464746226059e-05</v>
+        <v>1.051430283516099e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>4.901148310432153e-05</v>
+        <v>1.204057666228382e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>2.518411780529776e-05</v>
+        <v>1.587055229837281e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>1.924170362025901e-05</v>
+        <v>2.539504496315549e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>2.433774582304272e-05</v>
+        <v>3.846436027077511e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>1.072326448078239e-05</v>
+        <v>5.02716466891912e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>7.732945769644246e-06</v>
+        <v>6.628230739944265e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>4.446835618607697e-06</v>
+        <v>8.203016295466852e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.307164933424632e-06</v>
+        <v>8.833431868892636e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>1.766380872895158e-06</v>
+        <v>0.0001091030087452744</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>1.7774996290787e-06</v>
+        <v>0.0001327155195338573</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>2.114806068923802e-06</v>
+        <v>0.0001336716017966888</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>2.682163097921265e-06</v>
+        <v>0.0001490245164104183</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>2.580793190262382e-06</v>
+        <v>0.0001515159836454295</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>5.476626649740025e-06</v>
+        <v>0.0001500108353941003</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>8.29241836412902e-06</v>
+        <v>0.0001470335787490424</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>1.991693804863741e-05</v>
+        <v>0.0001470625470227306</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>4.97161326027827e-05</v>
+        <v>0.0001392577487455907</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>4.848075804712692e-05</v>
+        <v>0.0001353966225575506</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>2.611651368405161e-05</v>
+        <v>0.0001102594670173099</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>1.349147678378273e-05</v>
+        <v>0.0001017218481658819</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>6.700141435588203e-06</v>
+        <v>8.513243368589241e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>6.855951318064849e-06</v>
+        <v>6.555030130756358e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>4.768995621565473e-06</v>
+        <v>5.957077977913659e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>4.190207069121112e-06</v>
+        <v>5.096422345818395e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>2.677564172026749e-06</v>
+        <v>4.839049696661093e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>3.027489287401527e-06</v>
+        <v>4.850681413198268e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>6.419302759264413e-06</v>
+        <v>4.791237687147393e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>4.230076075307543e-06</v>
+        <v>4.62879994766279e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>1.869818813240431e-06</v>
+        <v>4.648545589796079e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.595407227774903e-06</v>
+        <v>4.690069286070828e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.425560506398031e-06</v>
+        <v>5.227766533026801e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>1.784308481660756e-06</v>
+        <v>5.682154129357849e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.147203330881347e-06</v>
+        <v>5.958539602774142e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.249855434164249e-06</v>
+        <v>5.990134479791488e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.113848407748562e-06</v>
+        <v>5.858150355858101e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>9.345258723209016e-06</v>
+        <v>5.537900265616714e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>9.634004629416009e-06</v>
+        <v>4.728695305478079e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>8.537750293624503e-06</v>
+        <v>2.931063946524184e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>7.396334192306982e-06</v>
+        <v>2.459967553638148e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>5.495495748604946e-06</v>
+        <v>1.956673110218177e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>4.958878594549515e-06</v>
+        <v>1.496953612155391e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>4.652493335795195e-06</v>
+        <v>1.400085456247482e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>4.677493173271013e-06</v>
+        <v>1.372308651576457e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>4.521034433040459e-06</v>
+        <v>1.396568414342006e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>4.504845982911972e-06</v>
+        <v>1.326582662488487e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>5.137269315722216e-06</v>
+        <v>1.317840558122749e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>6.74857716756685e-06</v>
+        <v>1.323714236699497e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>1.074590586772371e-05</v>
+        <v>1.318576784607017e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.62423870146557e-05</v>
+        <v>1.296153458802319e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>2.118330545222892e-05</v>
+        <v>1.270159966822774e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>2.787293153137593e-05</v>
+        <v>1.269325898247275e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>3.445092955613744e-05</v>
+        <v>1.13711210349397e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>3.706746353896404e-05</v>
+        <v>1.155274331011396e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>4.571869493167579e-05</v>
+        <v>1.161463817827448e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>5.550003038406123e-05</v>
+        <v>1.154360458770849e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>5.585904978309732e-05</v>
+        <v>1.013886043461289e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>6.219098370584218e-05</v>
+        <v>8.766623192339217e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>6.316373359193857e-05</v>
+        <v>8.295413523376273e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>6.249892003938452e-05</v>
+        <v>8.079090228693805e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>6.121887288594007e-05</v>
+        <v>9.973828459868252e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>6.120337743907675e-05</v>
+        <v>1.721368179559399e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>5.792206360574949e-05</v>
+        <v>2.110014819131417e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>5.629471462816139e-05</v>
+        <v>2.237106404902639e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>4.574752141097193e-05</v>
+        <v>2.27960682003873e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>4.215829497971152e-05</v>
+        <v>2.317488903825467e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>3.524921334441061e-05</v>
+        <v>2.33157722622998e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>2.708512674383109e-05</v>
+        <v>2.241363502305918e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.458710985376615e-05</v>
+        <v>2.051970294067663e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>2.101370686721797e-05</v>
+        <v>1.275183830869601e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.994050160407149e-05</v>
+        <v>8.14602367149834e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.998793540664691e-05</v>
+        <v>7.272224207627396e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.973496337696794e-05</v>
+        <v>8.241752763920726e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.904620130188139e-05</v>
+        <v>1.146562599582025e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.911543034013862e-05</v>
+        <v>1.276115791146253e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.927710169812474e-05</v>
+        <v>1.9255388277328e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>2.147520024263867e-05</v>
+        <v>2.540297994921924e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>2.332668183778326e-05</v>
+        <v>2.632937729343332e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>2.444705966002097e-05</v>
+        <v>2.522798902063479e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>2.456002357206134e-05</v>
+        <v>2.26783521611968e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.400488153684448e-05</v>
+        <v>2.24568810593537e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>2.266822502080313e-05</v>
+        <v>2.003247316565161e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.933637126766896e-05</v>
+        <v>1.698131665622145e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.19606403505325e-05</v>
+        <v>1.547671252087426e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>1.002779305190631e-05</v>
+        <v>1.518482478204916e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>7.968609551130063e-06</v>
+        <v>1.498080964497881e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>6.084120911479905e-06</v>
+        <v>1.479831501189369e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>5.68357393758915e-06</v>
+        <v>1.385444120648773e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>5.56650667503726e-06</v>
+        <v>1.54898890010933e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>5.661340468552992e-06</v>
+        <v>1.780234205119685e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>5.375260087909582e-06</v>
+        <v>2.012992000575323e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>5.338619099023668e-06</v>
+        <v>2.271971468741868e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>5.361924154393389e-06</v>
+        <v>2.62431051770492e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>5.340803831279823e-06</v>
+        <v>2.952477629466911e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>5.247616978243231e-06</v>
+        <v>2.815248646274424e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>5.140267815620671e-06</v>
+        <v>2.831389445900326e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>5.134719020947313e-06</v>
+        <v>2.534566975380223e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>4.598089862734832e-06</v>
+        <v>2.489544833436739e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>4.670310794821384e-06</v>
+        <v>2.202477442367299e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>4.694640916602322e-06</v>
+        <v>2.109677724009936e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>4.662939250586929e-06</v>
+        <v>2.05542377867753e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>4.091293276123127e-06</v>
+        <v>2.611755287554632e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>3.533914666587115e-06</v>
+        <v>2.280844531650102e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>3.340671942429998e-06</v>
+        <v>2.40693620023755e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>3.25259746648941e-06</v>
+        <v>2.179649518236566e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>4.012186440542774e-06</v>
+        <v>2.042058458406064e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>6.917293830510065e-06</v>
+        <v>1.936429419975838e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>8.474194126709572e-06</v>
+        <v>1.818686989954622e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>8.978859280323578e-06</v>
+        <v>1.679144604974794e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>9.14327280805286e-06</v>
+        <v>1.699242401028201e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>9.291319862718453e-06</v>
+        <v>8.705698979788231e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>9.345922276643495e-06</v>
+        <v>3.588008268242772e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>8.973021505342061e-06</v>
+        <v>2.219432977734176e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>8.210839666013364e-06</v>
+        <v>3.131289136794045e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>5.091281790984537e-06</v>
+        <v>1.946633738368127e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>3.239046014066168e-06</v>
+        <v>1.580019128580313e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>2.879517922999283e-06</v>
+        <v>1.348084240192333e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>3.249902274130906e-06</v>
+        <v>1.3880819686345e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>4.512272664670951e-06</v>
+        <v>1.928130927114724e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>5.018419073023165e-06</v>
+        <v>3.57615314693207e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>7.561225390882903e-06</v>
+        <v>3.960902949154109e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>9.954988962809835e-06</v>
+        <v>3.441025533293018e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>1.030711791841724e-05</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9.865843993817134e-06</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8.859606958389313e-06</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.772977064888568e-06</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7.818088677242936e-06</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.620248912692459e-06</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.027154206896267e-06</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.910074035743454e-06</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.824951246316088e-06</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.751545924133459e-06</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.381727423665648e-06</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>6.009716162128429e-06</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6.900234915496653e-06</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7.794903894295845e-06</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>8.788100428990276e-06</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.014071597876148e-05</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.139650129335526e-05</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.086673269023411e-05</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.091870224004748e-05</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9.763384873315319e-06</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>9.589577477344952e-06</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>8.476756879464961e-06</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>8.117372133883572e-06</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>7.908095159739525e-06</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1.004131009928068e-05</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>8.76625178457814e-06</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>9.242627429926716e-06</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>8.366497001377405e-06</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>7.835010419739104e-06</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>7.426695229376765e-06</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.971955269077829e-06</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.434361404785756e-06</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.509200411998827e-06</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.331286523493473e-06</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.371466484422004e-06</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>8.478496453438149e-07</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.196085268496686e-06</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>7.434921188764989e-07</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>6.032054798458695e-07</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>5.142432653044634e-07</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.291473225697952e-07</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>7.334447054425204e-07</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.357330794256505e-06</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.500160292340548e-06</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.300276943198661e-06</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.155425390405855e-06</v>
+        <v>3.060136424642447e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>2.098374576409995e-06</v>
+        <v>239793214721.1423</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>2.73580614133955e-06</v>
+        <v>414088853510.1282</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>4.040416302275012e-06</v>
+        <v>580758558021.9581</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>5.796710003889307e-06</v>
+        <v>580971928976.559</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>7.891804430487909e-06</v>
+        <v>715037935427.5714</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.648220744464378e-05</v>
+        <v>682690388729.4996</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.767064728010032e-05</v>
+        <v>660591831940.9613</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>7.559681130481612e-05</v>
+        <v>720994325621.3295</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000121774231775957</v>
+        <v>511499506690.5113</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001328990219945126</v>
+        <v>648237098817.5092</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001063395183813396</v>
+        <v>722940991811.6074</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>5.473408002963301e-05</v>
+        <v>464913195854.3682</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>4.183696653285826e-05</v>
+        <v>670096953948.7775</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>5.293786080845318e-05</v>
+        <v>516370105463.7197</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.333494321821377e-05</v>
+        <v>556868347948.2454</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.683736961043326e-05</v>
+        <v>471655794936.4907</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>9.69234816986116e-06</v>
+        <v>488229359838.4163</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>5.039403092598048e-06</v>
+        <v>618463261730.1057</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>3.859777651867989e-06</v>
+        <v>511008853762.2773</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.886410892051245e-06</v>
+        <v>609358104558.3593</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>4.628702780601951e-06</v>
+        <v>1096905083339.659</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>5.876783568203599e-06</v>
+        <v>1279584057882.059</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5.659569460671536e-06</v>
+        <v>1786949180758.086</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>1.20240932629742e-05</v>
+        <v>1895251815450.463</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>1.822581985643999e-05</v>
+        <v>1786877917391.976</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>4.386212868972289e-05</v>
+        <v>1967148143484.468</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001097234886808229</v>
+        <v>1924164704773.912</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001072180910511472</v>
+        <v>1906275235226.966</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>5.787696713979606e-05</v>
+        <v>1872457991277.332</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>2.996094182366013e-05</v>
+        <v>1900392768808.413</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>1.491069758084297e-05</v>
+        <v>1780951456758.671</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>1.528823657992033e-05</v>
+        <v>1679914551601.842</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.065710189640546e-05</v>
+        <v>1899516527421.224</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>9.382583906040345e-06</v>
+        <v>1689704858000.506</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>6.002028210057198e-06</v>
+        <v>1616401465724.242</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>6.79316701128352e-06</v>
+        <v>1089365263254.226</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.443372542442751e-05</v>
+        <v>1081959770261.885</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>9.551134905001174e-06</v>
+        <v>1021557074459.219</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>4.230677614338141e-06</v>
+        <v>1092505606935.576</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.617121075522552e-06</v>
+        <v>1629979438112.073</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>3.245540709110218e-06</v>
+        <v>1677504768608.898</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>4.079165731011509e-06</v>
+        <v>1540851587445.587</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>7.224836436000992e-06</v>
+        <v>1390734809858.111</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.666092969646723e-05</v>
+        <v>1451713656791.123</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.866079358145069e-05</v>
+        <v>1409595886280.883</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>2.154269123581542e-05</v>
+        <v>917110442961.1188</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>2.223126257156493e-05</v>
+        <v>1200329828725.893</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.972266473744983e-05</v>
+        <v>1756832312967.939</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>1.712119869531401e-05</v>
+        <v>2531650818980.344</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.274698289427775e-05</v>
+        <v>3433616587864.56</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.152642996687304e-05</v>
+        <v>7127436929120.288</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.081904662005639e-05</v>
+        <v>11941687989950.01</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>1.088420156120307e-05</v>
+        <v>32690681961371.77</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>1.053059137357131e-05</v>
+        <v>52555173567233.08</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.051430283516099e-05</v>
+        <v>57154672865219.68</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.204057666228382e-05</v>
+        <v>45681141811978.36</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>1.587055229837281e-05</v>
+        <v>23524379081313.78</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>2.539504496315549e-05</v>
+        <v>17989341579421.04</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>3.846436027077511e-05</v>
+        <v>22709150121695.95</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>5.02716466891912e-05</v>
+        <v>9993509336604.564</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>6.628230739944265e-05</v>
+        <v>7188364305202.735</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>8.203016295466852e-05</v>
+        <v>4125230610918.455</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>8.833431868892636e-05</v>
+        <v>2152513658979.156</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0001091030087452744</v>
+        <v>1650739489360.043</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0001327155195338573</v>
+        <v>1673661469245.901</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0001336716017966888</v>
+        <v>1969394938389.121</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001490245164104183</v>
+        <v>2559097760245.434</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001515159836454295</v>
+        <v>2470056601929.575</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001500108353941003</v>
+        <v>4999453758042.885</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001470335787490424</v>
+        <v>7838495130528.501</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0001470625470227306</v>
+        <v>18589476019803.35</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001392577487455907</v>
+        <v>46387305373863.19</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001353966225575506</v>
+        <v>45258208800811.61</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0001102594670173099</v>
+        <v>24353398170412.51</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0001017218481658819</v>
+        <v>12648865286095.33</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>8.513243368589241e-05</v>
+        <v>6249038820102.187</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>6.555030130756358e-05</v>
+        <v>6418702423522.251</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>5.957077977913659e-05</v>
+        <v>4538424523441.24</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>5.096422345818395e-05</v>
+        <v>3906823247493.62</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>4.839049696661093e-05</v>
+        <v>2491868524568.499</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>4.850681413198268e-05</v>
+        <v>2820540012564.465</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>4.791237687147393e-05</v>
+        <v>5976349432645.841</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>4.62879994766279e-05</v>
+        <v>3936625667969.297</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>4.648545589796079e-05</v>
+        <v>1737624614967.896</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>4.690069286070828e-05</v>
+        <v>1485813881979.402</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.227766533026801e-05</v>
+        <v>1330171269704.08</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>5.682154129357849e-05</v>
+        <v>1650986085073.232</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>5.958539602774142e-05</v>
+        <v>2934597733112.057</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>5.990134479791488e-05</v>
+        <v>6749031831536.629</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>5.858150355858101e-05</v>
+        <v>7545578666838.936</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>5.537900265616714e-05</v>
+        <v>8728579173389.561</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>4.728695305478079e-05</v>
+        <v>8961700061378.49</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.931063946524184e-05</v>
+        <v>7925268276895.322</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>2.459967553638148e-05</v>
+        <v>6901314075111.74</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.956673110218177e-05</v>
+        <v>5118022637571.012</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.496953612155391e-05</v>
+        <v>4630425279377.52</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.400085456247482e-05</v>
+        <v>4347171067588.459</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.372308651576457e-05</v>
+        <v>4327826612463.455</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.396568414342006e-05</v>
+        <v>4223825519502.357</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.326582662488487e-05</v>
+        <v>4193876808474.567</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.317840558122749e-05</v>
+        <v>4787058499010.504</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>1.323714236699497e-05</v>
+        <v>6298621864206.718</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.318576784607017e-05</v>
+        <v>10014950534826.95</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>1.296153458802319e-05</v>
+        <v>15127179831865.74</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.270159966822774e-05</v>
+        <v>19747363966379.69</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.269325898247275e-05</v>
+        <v>25950231017772.31</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13711210349397e-05</v>
+        <v>32109938720430.68</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.155274331011396e-05</v>
+        <v>34537093727165.59</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.161463817827448e-05</v>
+        <v>42651993778911.55</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.154360458770849e-05</v>
+        <v>51721299857071.62</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.013886043461289e-05</v>
+        <v>52051733719201.95</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>8.766623192339217e-06</v>
+        <v>57914822885965.48</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>8.295413523376273e-06</v>
+        <v>58836783295971.81</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>8.079090228693805e-06</v>
+        <v>58232323683226.49</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>9.973828459868252e-06</v>
+        <v>57058899332104.17</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.721368179559399e-05</v>
+        <v>56948330048762.27</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.110014819131417e-05</v>
+        <v>53952741295783.66</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.237106404902639e-05</v>
+        <v>52453966912849.28</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>2.27960682003873e-05</v>
+        <v>42616485561798.39</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>2.317488903825467e-05</v>
+        <v>39258918753435.95</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>2.33157722622998e-05</v>
+        <v>32877366866887.94</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>2.241363502305918e-05</v>
+        <v>25231426383052.57</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.051970294067663e-05</v>
+        <v>22900125855626.07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.275183830869601e-05</v>
+        <v>19604002711641.41</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>8.14602367149834e-06</v>
+        <v>18581684252954.67</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>7.272224207627396e-06</v>
+        <v>18639050722884.66</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>8.241752763920726e-06</v>
+        <v>18430770258362.93</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.146562599582025e-05</v>
+        <v>17752571890759.34</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>1.276115791146253e-05</v>
+        <v>17842062886508.64</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>1.9255388277328e-05</v>
+        <v>17947147263167.61</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>2.540297994921924e-05</v>
+        <v>20013333096153.8</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>2.632937729343332e-05</v>
+        <v>21719312835856.06</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.522798902063479e-05</v>
+        <v>22761303569973.3</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>2.26783521611968e-05</v>
+        <v>22910946044193.96</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>2.24568810593537e-05</v>
+        <v>22344505848362.12</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>2.003247316565161e-05</v>
+        <v>21109685206800.23</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.698131665622145e-05</v>
+        <v>18027640581899.38</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>1.547671252087426e-05</v>
+        <v>11137377664593.13</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>1.518482478204916e-05</v>
+        <v>9315424152613.541</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.498080964497881e-05</v>
+        <v>7435353877312.628</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>1.479831501189369e-05</v>
+        <v>5678341386048.323</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.385444120648773e-05</v>
+        <v>5285742575233.678</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>1.54898890010933e-05</v>
+        <v>5158531035808.741</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.780234205119685e-05</v>
+        <v>5269650366520.975</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>2.012992000575323e-05</v>
+        <v>5008959442150.302</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>2.271971468741868e-05</v>
+        <v>4999829778982.618</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>2.62431051770492e-05</v>
+        <v>5004561042036.576</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>2.952477629466911e-05</v>
+        <v>4981084577184.722</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>2.815248646274424e-05</v>
+        <v>4885721927848.503</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>2.831389445900326e-05</v>
+        <v>4767350327881.532</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>2.534566975380223e-05</v>
+        <v>4763787080651.729</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>2.489544833436739e-05</v>
+        <v>4303722515046.544</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>2.202477442367299e-05</v>
+        <v>4347392648595.547</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.109677724009936e-05</v>
+        <v>4385651628793.502</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>2.05542377867753e-05</v>
+        <v>4344042768963.772</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>2.611755287554632e-05</v>
+        <v>3815375493630.99</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>2.280844531650102e-05</v>
+        <v>3314003778134.445</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>2.40693620023755e-05</v>
+        <v>3108660323481.149</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>2.179649518236566e-05</v>
+        <v>3026802522621.372</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>2.042058458406064e-05</v>
+        <v>3729485577008.033</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>1.936429419975838e-05</v>
+        <v>6484985068014.328</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.818686989954622e-05</v>
+        <v>7877476276061.356</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.679144604974794e-05</v>
+        <v>8361545703761.816</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>1.699242401028201e-05</v>
+        <v>8497430209339.054</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>8.705698979788231e-06</v>
+        <v>8642950924263.155</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>3.588008268242772e-06</v>
+        <v>8706973127186.971</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.219432977734176e-06</v>
+        <v>8348822249148.743</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>3.131289136794045e-06</v>
+        <v>7661777791306.64</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>1.946633738368127e-06</v>
+        <v>4742657746210.622</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>1.580019128580313e-06</v>
+        <v>3015119690771.204</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.348084240192333e-06</v>
+        <v>2685173834584.898</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.3880819686345e-06</v>
+        <v>3031212451039.915</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>1.928130927114724e-06</v>
+        <v>4214548188420.018</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.57615314693207e-06</v>
+        <v>4663387412286.491</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>3.960902949154109e-06</v>
+        <v>7021927209936.558</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>3.441025533293018e-06</v>
+        <v>9325960630322.561</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.060136424642447e-06</v>
+        <v>9592888900416.611</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9187517710807.336</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8234590096791.601</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8173935196311.855</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7284481027479.949</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6161988248090.964</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5631147033970.727</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5548958557874.222</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5443777079668.6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5370422704477.156</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5035910236180.431</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5613024143341.741</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6446862254262.948</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7267502549932.711</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8171765963481.412</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9438784381668.508</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>10624887244912.26</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>10127704451617.47</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>10147915057813.25</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9100105810378.488</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>8935986602722.686</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>7911681409725.558</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>7573655025775.685</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7379973704620.798</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9357780867274.711</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8162488527672.24</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8588413200552.558</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>7798594423596.472</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7304140716022.978</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6918597852606.097</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6480734212588.474</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5992378350284.777</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6077414485253.61</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3113152377420.533</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1276316879434.295</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>788996489798.1545</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1114420709017.966</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>692454433953.9299</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>560777476130.4976</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>474795313047.2477</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>482711199239.0258</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>684839621257.031</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1262253927608.629</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1395640825141.822</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1210200831393.445</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1074158382206.498</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>239793214721.1423</v>
+        <v>2.382568337224643e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>414088853510.1282</v>
+        <v>3.005762022905408e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>580758558021.9581</v>
+        <v>4.40819247993782e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>580971928976.559</v>
+        <v>6.415236129630225e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>715037935427.5714</v>
+        <v>8.719844630809139e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>682690388729.4996</v>
+        <v>1.771305514931908e-05</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>660591831940.9613</v>
+        <v>2.978197314034007e-05</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>720994325621.3295</v>
+        <v>7.99873993601446e-05</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>511499506690.5113</v>
+        <v>0.0001283860919363447</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>648237098817.5092</v>
+        <v>0.0001408886762617746</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>722940991811.6074</v>
+        <v>0.0001123353770170299</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>464913195854.3682</v>
+        <v>5.772171917632209e-05</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>670096953948.7775</v>
+        <v>4.450661151346961e-05</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>516370105463.7197</v>
+        <v>5.621815454861683e-05</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>556868347948.2454</v>
+        <v>2.511294804019201e-05</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>471655794936.4907</v>
+        <v>1.778825174358564e-05</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>488229359838.4163</v>
+        <v>1.037254296213513e-05</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>618463261730.1057</v>
+        <v>5.609437666076452e-06</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>511008853762.2773</v>
+        <v>4.28618692773779e-06</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>609358104558.3593</v>
+        <v>4.266984554045353e-06</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1096905083339.659</v>
+        <v>5.23420503815536e-06</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1279584057882.059</v>
+        <v>6.554158591810413e-06</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1786949180758.086</v>
+        <v>6.302912229631266e-06</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1895251815450.463</v>
+        <v>1.296350513628428e-05</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1786877917391.976</v>
+        <v>2.014189700445763e-05</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1967148143484.468</v>
+        <v>4.652875841227828e-05</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1924164704773.912</v>
+        <v>0.0001173324442234121</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1906275235226.966</v>
+        <v>0.0001151948621828594</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1872457991277.332</v>
+        <v>6.101833661472606e-05</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1900392768808.413</v>
+        <v>3.215107379150305e-05</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1780951456758.671</v>
+        <v>1.610077137543831e-05</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1679914551601.842</v>
+        <v>1.631726206376736e-05</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1899516527421.224</v>
+        <v>1.114032922950082e-05</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1689704858000.506</v>
+        <v>1.031798241806134e-05</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1616401465724.242</v>
+        <v>6.191035650792637e-06</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1089365263254.226</v>
+        <v>7.4378264014396e-06</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1081959770261.885</v>
+        <v>1.572611294305185e-05</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1021557074459.219</v>
+        <v>1.036185046313596e-05</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1092505606935.576</v>
+        <v>4.619973528303642e-06</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1629979438112.073</v>
+        <v>4.111973216352817e-06</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1677504768608.898</v>
+        <v>3.630938107338812e-06</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1540851587445.587</v>
+        <v>4.369419865935708e-06</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1390734809858.111</v>
+        <v>7.976316997843131e-06</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1451713656791.123</v>
+        <v>1.795761157006695e-05</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1409595886280.883</v>
+        <v>2.014070625540585e-05</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>917110442961.1188</v>
+        <v>2.332965562911797e-05</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1200329828725.893</v>
+        <v>2.381897103553946e-05</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1756832312967.939</v>
+        <v>2.094268501632511e-05</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2531650818980.344</v>
+        <v>1.855124965957265e-05</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>3433616587864.56</v>
+        <v>1.389850710015708e-05</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>7127436929120.288</v>
+        <v>1.275271863261805e-05</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>11941687989950.01</v>
+        <v>1.185109227275272e-05</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>32690681961371.77</v>
+        <v>1.179960358222549e-05</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>52555173567233.08</v>
+        <v>1.149253949874486e-05</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>57154672865219.68</v>
+        <v>1.140475694360337e-05</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>45681141811978.36</v>
+        <v>1.305880110638537e-05</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>23524379081313.78</v>
+        <v>1.726209355898877e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>17989341579421.04</v>
+        <v>2.740219196076373e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>22709150121695.95</v>
+        <v>4.081988458708517e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>9993509336604.564</v>
+        <v>5.357269242389544e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>7188364305202.735</v>
+        <v>7.034178384408424e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>4125230610918.455</v>
+        <v>8.696700583065655e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2152513658979.156</v>
+        <v>9.349102561169341e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1650739489360.043</v>
+        <v>0.0001157124960629691</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1673661469245.901</v>
+        <v>0.0001402270446911842</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1969394938389.121</v>
+        <v>0.000141485522923508</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>2559097760245.434</v>
+        <v>0.0001572625901632914</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>2470056601929.575</v>
+        <v>0.0001600579192537465</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>4999453758042.885</v>
+        <v>0.0001586347094373777</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>7838495130528.501</v>
+        <v>0.0001554622425353772</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>18589476019803.35</v>
+        <v>0.0001550198337671036</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>46387305373863.19</v>
+        <v>0.0001468605186931511</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>45258208800811.61</v>
+        <v>0.0001431217255988403</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>24353398170412.51</v>
+        <v>0.0001166329109880241</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>12648865286095.33</v>
+        <v>0.0001077057754553099</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>6249038820102.187</v>
+        <v>9.020556979179725e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>6418702423522.251</v>
+        <v>6.936873863538998e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>4538424523441.24</v>
+        <v>6.317135443947508e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>3906823247493.62</v>
+        <v>5.421853004995152e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2491868524568.499</v>
+        <v>5.141006051518185e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2820540012564.465</v>
+        <v>5.165566945938886e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>5976349432645.841</v>
+        <v>5.109506796343522e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>3936625667969.297</v>
+        <v>4.919081233841776e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1737624614967.896</v>
+        <v>4.953073470434366e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1485813881979.402</v>
+        <v>5.002260448335456e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1330171269704.08</v>
+        <v>5.534112814700157e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1650986085073.232</v>
+        <v>6.032520885852537e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>2934597733112.057</v>
+        <v>6.320018931178391e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>6749031831536.629</v>
+        <v>6.378581433928887e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7545578666838.936</v>
+        <v>6.202448815708492e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>8728579173389.561</v>
+        <v>5.864734518509225e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>8961700061378.49</v>
+        <v>5.028703865115868e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>7925268276895.322</v>
+        <v>3.124623924647171e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>6901314075111.74</v>
+        <v>2.619183715020255e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>5118022637571.012</v>
+        <v>2.109555157887993e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>4630425279377.52</v>
+        <v>1.618165461824173e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>4347171067588.459</v>
+        <v>1.518418775274285e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>4327826612463.455</v>
+        <v>1.485616546972649e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>4223825519502.357</v>
+        <v>1.516312335602456e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>4193876808474.567</v>
+        <v>1.438088144086224e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>4787058499010.504</v>
+        <v>1.435012404502941e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>6298621864206.718</v>
+        <v>1.445608950396269e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>10014950534826.95</v>
+        <v>1.42725566414265e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>15127179831865.74</v>
+        <v>1.396207146669733e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>19747363966379.69</v>
+        <v>1.357899176572842e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>25950231017772.31</v>
+        <v>1.337734722654262e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>32109938720430.68</v>
+        <v>1.253136809359467e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>34537093727165.59</v>
+        <v>1.260331517722454e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>42651993778911.55</v>
+        <v>1.282206016058406e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>51721299857071.62</v>
+        <v>1.264417398098869e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>52051733719201.95</v>
+        <v>1.110642378002918e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>57914822885965.48</v>
+        <v>9.735832884307803e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>58836783295971.81</v>
+        <v>9.133517743461898e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>58232323683226.49</v>
+        <v>8.861028180413348e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>57058899332104.17</v>
+        <v>1.104191219924833e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>56948330048762.27</v>
+        <v>1.88286872821555e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>53952741295783.66</v>
+        <v>2.269108075652126e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>52453966912849.28</v>
+        <v>2.413976695850833e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>42616485561798.39</v>
+        <v>2.444740670352464e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>39258918753435.95</v>
+        <v>2.5095918414095e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>32877366866887.94</v>
+        <v>2.516843202924711e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>25231426383052.57</v>
+        <v>2.40862928270108e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>22900125855626.07</v>
+        <v>2.220205770961856e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>19604002711641.41</v>
+        <v>1.383236572545775e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>18581684252954.67</v>
+        <v>8.887890932810108e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>18639050722884.66</v>
+        <v>8.044058677750951e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>18430770258362.93</v>
+        <v>8.97323087867817e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>17752571890759.34</v>
+        <v>1.254575723369025e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>17842062886508.64</v>
+        <v>1.387713103042977e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>17947147263167.61</v>
+        <v>2.072326072900419e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>20013333096153.8</v>
+        <v>2.728158688205613e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>21719312835856.06</v>
+        <v>2.845840012913815e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>22761303569973.3</v>
+        <v>2.709864325868504e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>22910946044193.96</v>
+        <v>2.414708103649844e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>22344505848362.12</v>
+        <v>2.13978337926272e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>21109685206800.23</v>
+        <v>1.815981854732912e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>18027640581899.38</v>
+        <v>1.676397618687187e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>11137377664593.13</v>
+        <v>1.669182564107575e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>9315424152613.541</v>
+        <v>1.598943193431541e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>7435353877312.628</v>
+        <v>1.592431799846046e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>5678341386048.323</v>
+        <v>1.535136319632706e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>5285742575233.678</v>
+        <v>1.685590008723611e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>5158531035808.741</v>
+        <v>1.932348427734105e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>5269650366520.975</v>
+        <v>2.167469369619095e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>5008959442150.302</v>
+        <v>2.440633016250031e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>4999829778982.618</v>
+        <v>2.804926410226597e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>5004561042036.576</v>
+        <v>3.083206615614796e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>4981084577184.722</v>
+        <v>3.006629894243625e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>4885721927848.503</v>
+        <v>2.710424726116462e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>4767350327881.532</v>
+        <v>2.664559424037226e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>4763787080651.729</v>
+        <v>2.36470888583971e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4303722515046.544</v>
+        <v>2.266624455842284e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4347392648595.547</v>
+        <v>2.211363377243696e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>4385651628793.502</v>
+        <v>2.787256163425513e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>4344042768963.772</v>
+        <v>2.446541901168085e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>3815375493630.99</v>
+        <v>2.571846443989525e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>3314003778134.445</v>
+        <v>2.338215593364379e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3108660323481.149</v>
+        <v>2.193142352673126e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>3026802522621.372</v>
+        <v>2.085126238479246e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>3729485577008.033</v>
+        <v>1.931387298990872e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>6484985068014.328</v>
+        <v>1.805945308489446e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>7877476276061.356</v>
+        <v>1.844002675927503e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>8361545703761.816</v>
+        <v>9.562661476851337e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>8497430209339.054</v>
+        <v>3.964355453845505e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>8642950924263.155</v>
+        <v>2.394567027138484e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>8706973127186.971</v>
+        <v>3.448351423335255e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>8348822249148.743</v>
+        <v>2.148422814450834e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>7661777791306.64</v>
+        <v>1.722229357004636e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>4742657746210.622</v>
+        <v>1.449162886146976e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>3015119690771.204</v>
+        <v>1.464024344511133e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2685173834584.898</v>
+        <v>2.14683326222901e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>3031212451039.915</v>
+        <v>3.933262588168054e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>4214548188420.018</v>
+        <v>4.365011513217559e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>4663387412286.491</v>
+        <v>3.776230655450294e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>7021927209936.558</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9325960630322.561</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9592888900416.611</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9187517710807.336</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8234590096791.601</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8173935196311.855</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7284481027479.949</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6161988248090.964</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5631147033970.727</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5548958557874.222</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5443777079668.6</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5370422704477.156</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5035910236180.431</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5613024143341.741</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6446862254262.948</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7267502549932.711</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>8171765963481.412</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9438784381668.508</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>10624887244912.26</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>10127704451617.47</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>10147915057813.25</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9100105810378.488</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>8935986602722.686</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>7911681409725.558</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>7573655025775.685</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>7379973704620.798</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>9357780867274.711</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>8162488527672.24</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>8588413200552.558</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>7798594423596.472</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>7304140716022.978</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>6918597852606.097</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6480734212588.474</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5992378350284.777</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6077414485253.61</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3113152377420.533</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1276316879434.295</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>788996489798.1545</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1114420709017.966</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>692454433953.9299</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>560777476130.4976</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>474795313047.2477</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>482711199239.0258</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>684839621257.031</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1262253927608.629</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1395640825141.822</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1210200831393.445</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1074158382206.498</v>
+        <v>3.357996848901387e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints8.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.382568337224643e-06</v>
+        <v>1.246737542635137e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>3.005762022905408e-06</v>
+        <v>1.864544672094994e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>4.40819247993782e-06</v>
+        <v>3.145550110320634e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>6.415236129630225e-06</v>
+        <v>5.299379198358635e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>8.719844630809139e-06</v>
+        <v>7.83298801155748e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.771305514931908e-05</v>
+        <v>1.62456683414045e-05</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.978197314034007e-05</v>
+        <v>2.89006840976087e-05</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.99873993601446e-05</v>
+        <v>7.809373249639032e-05</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001283860919363447</v>
+        <v>0.0001256977678435718</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001408886762617746</v>
+        <v>0.0001398392196861294</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001123353770170299</v>
+        <v>0.0001108669186819111</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>5.772171917632209e-05</v>
+        <v>5.716212666133301e-05</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>4.450661151346961e-05</v>
+        <v>4.319604072162172e-05</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>5.621815454861683e-05</v>
+        <v>5.551084739156226e-05</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.511294804019201e-05</v>
+        <v>2.397017092730336e-05</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.778825174358564e-05</v>
+        <v>1.699826742878529e-05</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.037254296213513e-05</v>
+        <v>8.972957068078475e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>5.609437666076452e-06</v>
+        <v>4.536462436208589e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>4.28618692773779e-06</v>
+        <v>3.443117739183189e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>4.266984554045353e-06</v>
+        <v>3.241272934958187e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>5.23420503815536e-06</v>
+        <v>4.44913513492067e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>6.554158591810413e-06</v>
+        <v>6.21753521670442e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>6.302912229631266e-06</v>
+        <v>5.306832331518932e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.296350513628428e-05</v>
+        <v>1.124443969953295e-05</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>2.014189700445763e-05</v>
+        <v>1.784078006433219e-05</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>4.652875841227828e-05</v>
+        <v>4.609640581531299e-05</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001173324442234121</v>
+        <v>0.0001166315506020223</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001151948621828594</v>
+        <v>0.000113722842426936</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>6.101833661472606e-05</v>
+        <v>6.064819098067215e-05</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.215107379150305e-05</v>
+        <v>3.102185800912773e-05</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.610077137543831e-05</v>
+        <v>1.54087014982625e-05</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.631726206376736e-05</v>
+        <v>1.552707792656872e-05</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.114032922950082e-05</v>
+        <v>1.145314234371859e-05</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.031798241806134e-05</v>
+        <v>7.91614647668846e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>6.191035650792637e-06</v>
+        <v>6.074611169740739e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>7.4378264014396e-06</v>
+        <v>7.197987546210894e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.572611294305185e-05</v>
+        <v>1.546420352674945e-05</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.036185046313596e-05</v>
+        <v>1.018398606278394e-05</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.619973528303642e-06</v>
+        <v>4.235673861635544e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.111973216352817e-06</v>
+        <v>3.604716530578066e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3.630938107338812e-06</v>
+        <v>3.375401001561401e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.369419865935708e-06</v>
+        <v>3.994495892081441e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>7.976316997843131e-06</v>
+        <v>7.824328024370578e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.795761157006695e-05</v>
+        <v>1.770446361746062e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2.014070625540585e-05</v>
+        <v>1.985943444141084e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>2.332965562911797e-05</v>
+        <v>2.332701432380122e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>2.381897103553946e-05</v>
+        <v>2.371808943259911e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.094268501632511e-05</v>
+        <v>2.065971723175687e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.855124965957265e-05</v>
+        <v>1.825703233355651e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.389850710015708e-05</v>
+        <v>1.397276884803694e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.275271863261805e-05</v>
+        <v>1.263457419047064e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.185109227275272e-05</v>
+        <v>1.198262497753045e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.179960358222549e-05</v>
+        <v>1.160976477806011e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.149253949874486e-05</v>
+        <v>1.102063435941831e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.140475694360337e-05</v>
+        <v>1.09760282715912e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.305880110638537e-05</v>
+        <v>1.28694169770717e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.726209355898877e-05</v>
+        <v>1.701973262634899e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>2.740219196076373e-05</v>
+        <v>2.741041945091081e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>4.081988458708517e-05</v>
+        <v>4.103249436184171e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>5.357269242389544e-05</v>
+        <v>5.379460109326794e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>7.034178384408424e-05</v>
+        <v>7.052241567676476e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>8.696700583065655e-05</v>
+        <v>8.736898293756613e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>9.349102561169341e-05</v>
+        <v>9.364972935285037e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0001157124960629691</v>
+        <v>0.0001158249592099005</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0001402270446911842</v>
+        <v>0.0001409702317265289</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000141485522923508</v>
+        <v>0.0001419237308312815</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001572625901632914</v>
+        <v>0.0001590205503879252</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001600579192537465</v>
+        <v>0.0001604562735844813</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001586347094373777</v>
+        <v>0.0001597188754249416</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001554622425353772</v>
+        <v>0.0001561799332145213</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0001550198337671036</v>
+        <v>0.0001552999658483669</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001468605186931511</v>
+        <v>0.0001483231073510741</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001431217255988403</v>
+        <v>0.0001436686826202247</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0001166329109880241</v>
+        <v>0.0001176264839256488</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0001077057754553099</v>
+        <v>0.0001077407216726972</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>9.020556979179725e-05</v>
+        <v>9.049989890516167e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>6.936873863538998e-05</v>
+        <v>6.979836161739438e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>6.317135443947508e-05</v>
+        <v>6.349014874325543e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>5.421853004995152e-05</v>
+        <v>5.43404667795021e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>5.141006051518185e-05</v>
+        <v>5.163544404305074e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>5.165566945938886e-05</v>
+        <v>5.178626950231345e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>5.109506796343522e-05</v>
+        <v>5.12610416539909e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>4.919081233841776e-05</v>
+        <v>4.929963845651433e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>4.953073470434366e-05</v>
+        <v>4.959838565109054e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>5.002260448335456e-05</v>
+        <v>5.005904959129393e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>5.534112814700157e-05</v>
+        <v>5.555860051333603e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>6.032520885852537e-05</v>
+        <v>6.033116753054102e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>6.320018931178391e-05</v>
+        <v>6.316508052115444e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>6.378581433928887e-05</v>
+        <v>6.381101256997849e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>6.202448815708492e-05</v>
+        <v>6.221907315087434e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>5.864734518509225e-05</v>
+        <v>5.860712961928723e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>5.028703865115868e-05</v>
+        <v>5.054768847950971e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>3.124623924647171e-05</v>
+        <v>3.144408913961739e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.619183715020255e-05</v>
+        <v>2.64670064949417e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.109555157887993e-05</v>
+        <v>2.120501537596423e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.618165461824173e-05</v>
+        <v>1.62747498985478e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.518418775274285e-05</v>
+        <v>1.520768874023442e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.485616546972649e-05</v>
+        <v>1.486115852532733e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.516312335602456e-05</v>
+        <v>1.507486994532861e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.438088144086224e-05</v>
+        <v>1.428477928366145e-05</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.435012404502941e-05</v>
+        <v>1.436049189333194e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.445608950396269e-05</v>
+        <v>1.43515452597397e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.42725566414265e-05</v>
+        <v>1.4292175905234e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.396207146669733e-05</v>
+        <v>1.40902900458885e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.357899176572842e-05</v>
+        <v>1.351829336270826e-05</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.337734722654262e-05</v>
+        <v>1.335341825796248e-05</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.253136809359467e-05</v>
+        <v>1.246590182601238e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.260331517722454e-05</v>
+        <v>1.249370318323265e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.282206016058406e-05</v>
+        <v>1.280544611875136e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.264417398098869e-05</v>
+        <v>1.245717489872394e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.110642378002918e-05</v>
+        <v>1.100896889674253e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>9.735832884307803e-06</v>
+        <v>9.777979707962573e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>9.133517743461898e-06</v>
+        <v>9.134023108242178e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>8.861028180413348e-06</v>
+        <v>8.980121152665303e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.104191219924833e-05</v>
+        <v>1.100170710164421e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.88286872821555e-05</v>
+        <v>1.87426190917013e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>2.269108075652126e-05</v>
+        <v>2.271101375559595e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>2.413976695850833e-05</v>
+        <v>2.407459882781632e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.444740670352464e-05</v>
+        <v>2.441553829467388e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.5095918414095e-05</v>
+        <v>2.507376131191814e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.516843202924711e-05</v>
+        <v>2.526251245219441e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.40862928270108e-05</v>
+        <v>2.422053449219886e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.220205770961856e-05</v>
+        <v>2.234685252355037e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.383236572545775e-05</v>
+        <v>1.385865149670878e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>8.887890932810108e-06</v>
+        <v>8.96269324234323e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>8.044058677750951e-06</v>
+        <v>8.048165500506849e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>8.97323087867817e-06</v>
+        <v>9.046669444527512e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.254575723369025e-05</v>
+        <v>1.25484747996857e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.387713103042977e-05</v>
+        <v>1.384696959276445e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.072326072900419e-05</v>
+        <v>2.062044092651419e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2.728158688205613e-05</v>
+        <v>2.773044463268501e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.845840012913815e-05</v>
+        <v>2.850040551555518e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>2.709864325868504e-05</v>
+        <v>2.713142642834509e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2.414708103649844e-05</v>
+        <v>2.411847117193849e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>2.13978337926272e-05</v>
+        <v>2.131176380344279e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.815981854732912e-05</v>
+        <v>1.842342696661683e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.676397618687187e-05</v>
+        <v>1.662259392722553e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.669182564107575e-05</v>
+        <v>1.636280577159894e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.598943193431541e-05</v>
+        <v>1.470047996928233e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.592431799846046e-05</v>
+        <v>1.582129799168547e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.535136319632706e-05</v>
+        <v>1.539930360107632e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.685590008723611e-05</v>
+        <v>1.62501998181705e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.932348427734105e-05</v>
+        <v>1.913443558430517e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.167469369619095e-05</v>
+        <v>2.157548657814469e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.440633016250031e-05</v>
+        <v>2.430136251327798e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>2.804926410226597e-05</v>
+        <v>2.798705674182814e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.083206615614796e-05</v>
+        <v>3.088446076457572e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3.006629894243625e-05</v>
+        <v>2.99848347970505e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.710424726116462e-05</v>
+        <v>2.719012672449364e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2.664559424037226e-05</v>
+        <v>2.675719957340788e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2.36470888583971e-05</v>
+        <v>2.381089385615171e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.266624455842284e-05</v>
+        <v>2.272555590971891e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.211363377243696e-05</v>
+        <v>2.220160567332728e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2.787256163425513e-05</v>
+        <v>2.802444433049902e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.446541901168085e-05</v>
+        <v>2.452234350504097e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.571846443989525e-05</v>
+        <v>2.585532847197956e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>2.338215593364379e-05</v>
+        <v>2.347906420335198e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>2.193142352673126e-05</v>
+        <v>2.202757384334493e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.085126238479246e-05</v>
+        <v>2.08668346037163e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.931387298990872e-05</v>
+        <v>1.944977165634973e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.805945308489446e-05</v>
+        <v>1.814084372561573e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.844002675927503e-05</v>
+        <v>1.855608173083427e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>9.562661476851337e-06</v>
+        <v>9.617311156105594e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>3.964355453845505e-06</v>
+        <v>4.08216188375154e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.394567027138484e-06</v>
+        <v>2.446366962909348e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>3.448351423335255e-06</v>
+        <v>3.507420044837387e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>2.148422814450834e-06</v>
+        <v>2.217334598009571e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.722229357004636e-06</v>
+        <v>1.788882815408401e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.449162886146976e-06</v>
+        <v>1.500270371785773e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.464024344511133e-06</v>
+        <v>1.340011112421827e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.14683326222901e-06</v>
+        <v>2.163514476062578e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>3.933262588168054e-06</v>
+        <v>3.907233007539703e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>4.365011513217559e-06</v>
+        <v>4.408260040625434e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>3.776230655450294e-06</v>
+        <v>3.839172447602179e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>3.357996848901387e-06</v>
+        <v>3.426261996900884e-06</v>
       </c>
     </row>
   </sheetData>
